--- a/Lipidomics/formula_not_all.xlsx
+++ b/Lipidomics/formula_not_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hanna\Documents\Blanchard_Lab\R\Soil-omics\Lipidomics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E50002-533A-4913-BFDE-2442F915CA6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D2F3E3-D678-44FB-8073-A0B9331E665F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6794EC8A-4D1A-42C9-B593-494DD880843D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="239">
   <si>
     <t>row.identity</t>
   </si>
@@ -660,6 +660,96 @@
   </si>
   <si>
     <t>C36H72O9P1</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Main Class</t>
+  </si>
+  <si>
+    <t>Sub Class</t>
+  </si>
+  <si>
+    <t>Prenol Lipids [PR]</t>
+  </si>
+  <si>
+    <t>Quinones and hydroquinones [PR02]</t>
+  </si>
+  <si>
+    <t>Ubiquinones [PR0201]</t>
+  </si>
+  <si>
+    <t>Glycerolipids [GL]</t>
+  </si>
+  <si>
+    <t>Diradylglycerols [GL02]</t>
+  </si>
+  <si>
+    <t>Diacylglycerols [GL0201]</t>
+  </si>
+  <si>
+    <t>Glycosyldiradylglycerols [GL05]</t>
+  </si>
+  <si>
+    <t>Glycosyldiacylglycerols [GL0501]</t>
+  </si>
+  <si>
+    <t>Other Glycerolipids [GL00]</t>
+  </si>
+  <si>
+    <t>Sphingolipids [SP]</t>
+  </si>
+  <si>
+    <t>Neutral glycosphingolipids [SP05]</t>
+  </si>
+  <si>
+    <t>Simple Glc series [SP0501]</t>
+  </si>
+  <si>
+    <t>Glycerophospholipids [GP]</t>
+  </si>
+  <si>
+    <t>Glycerophosphocholines [GP01]</t>
+  </si>
+  <si>
+    <t>Diacylglycerophosphocholines [GP0101]</t>
+  </si>
+  <si>
+    <t>Glycerophosphoethanolamines [GP02]</t>
+  </si>
+  <si>
+    <t>Diacylglycerophosphoethanolamines [GP0201]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-alkyl,2-acylglycerophosphoethanolamines [GP0202] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-(1Z-alkenyl),2-acylglycerophosphoethanolamines [GP0203] </t>
+  </si>
+  <si>
+    <t>Glycerophosphoglycerols [GP04]</t>
+  </si>
+  <si>
+    <t>Diacylglycerophosphoglycerols [GP0401]</t>
+  </si>
+  <si>
+    <t>Glycerophosphoinositols [GP06]</t>
+  </si>
+  <si>
+    <t>Diacylglycerophosphoinositols [GP0601]</t>
+  </si>
+  <si>
+    <t>Monoacylglycerophosphocholines [GP0105]</t>
+  </si>
+  <si>
+    <t>Glycerophosphates [GP10]</t>
+  </si>
+  <si>
+    <t>Diacylglycerophosphates [GP1001]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1-alkyl,2-acylglycerophosphoglycerols [GP0402] </t>
   </si>
 </sst>
 </file>
@@ -1020,15 +1110,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6F2544-C7DB-4BA8-8D36-77527410554F}">
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,8 +1128,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1049,8 +1148,17 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1168,17 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1071,8 +1188,17 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1208,17 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1093,8 +1228,17 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1104,8 +1248,17 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1115,8 +1268,17 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1126,8 +1288,14 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1137,8 +1305,14 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1148,8 +1322,14 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1159,8 +1339,14 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1170,8 +1356,14 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1181,8 +1373,14 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1192,8 +1390,14 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1203,8 +1407,14 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1214,8 +1424,14 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1225,8 +1441,14 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1236,8 +1458,14 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1247,8 +1475,14 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1258,8 +1492,14 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1269,8 +1509,14 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1280,8 +1526,14 @@
       <c r="C23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -1291,8 +1543,17 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" t="s">
+        <v>222</v>
+      </c>
+      <c r="F24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -1302,8 +1563,17 @@
       <c r="C25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -1313,8 +1583,17 @@
       <c r="C26" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -1324,8 +1603,17 @@
       <c r="C27" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>224</v>
+      </c>
+      <c r="E27" t="s">
+        <v>225</v>
+      </c>
+      <c r="F27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1335,8 +1623,17 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E28" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1346,8 +1643,17 @@
       <c r="C29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1357,8 +1663,17 @@
       <c r="C30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1368,8 +1683,17 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31" t="s">
+        <v>225</v>
+      </c>
+      <c r="F31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1379,8 +1703,17 @@
       <c r="C32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>224</v>
+      </c>
+      <c r="E32" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -1390,8 +1723,17 @@
       <c r="C33" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33" t="s">
+        <v>227</v>
+      </c>
+      <c r="F33" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -1401,8 +1743,17 @@
       <c r="C34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>224</v>
+      </c>
+      <c r="E34" t="s">
+        <v>227</v>
+      </c>
+      <c r="F34" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -1412,8 +1763,17 @@
       <c r="C35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" t="s">
+        <v>227</v>
+      </c>
+      <c r="F35" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1423,8 +1783,17 @@
       <c r="C36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>224</v>
+      </c>
+      <c r="E36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -1434,8 +1803,17 @@
       <c r="C37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>224</v>
+      </c>
+      <c r="E37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -1445,8 +1823,17 @@
       <c r="C38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>224</v>
+      </c>
+      <c r="E38" t="s">
+        <v>227</v>
+      </c>
+      <c r="F38" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1456,8 +1843,17 @@
       <c r="C39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>224</v>
+      </c>
+      <c r="E39" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1467,8 +1863,17 @@
       <c r="C40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1478,8 +1883,17 @@
       <c r="C41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -1489,8 +1903,17 @@
       <c r="C42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -1500,8 +1923,17 @@
       <c r="C43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43" t="s">
+        <v>227</v>
+      </c>
+      <c r="F43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -1511,8 +1943,17 @@
       <c r="C44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>224</v>
+      </c>
+      <c r="E44" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -1522,8 +1963,17 @@
       <c r="C45" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -1533,8 +1983,17 @@
       <c r="C46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>224</v>
+      </c>
+      <c r="E46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -1544,8 +2003,17 @@
       <c r="C47" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>224</v>
+      </c>
+      <c r="E47" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -1555,8 +2023,17 @@
       <c r="C48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48" t="s">
+        <v>227</v>
+      </c>
+      <c r="F48" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -1566,8 +2043,17 @@
       <c r="C49" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -1577,8 +2063,17 @@
       <c r="C50" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" t="s">
+        <v>227</v>
+      </c>
+      <c r="F50" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>95</v>
       </c>
@@ -1588,8 +2083,17 @@
       <c r="C51" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -1599,8 +2103,17 @@
       <c r="C52" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>224</v>
+      </c>
+      <c r="E52" t="s">
+        <v>227</v>
+      </c>
+      <c r="F52" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>98</v>
       </c>
@@ -1610,8 +2123,17 @@
       <c r="C53" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" t="s">
+        <v>227</v>
+      </c>
+      <c r="F53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -1621,8 +2143,17 @@
       <c r="C54" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" t="s">
+        <v>227</v>
+      </c>
+      <c r="F54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -1632,8 +2163,17 @@
       <c r="C55" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" t="s">
+        <v>227</v>
+      </c>
+      <c r="F55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -1643,8 +2183,17 @@
       <c r="C56" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56" t="s">
+        <v>227</v>
+      </c>
+      <c r="F56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -1654,8 +2203,17 @@
       <c r="C57" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57" t="s">
+        <v>227</v>
+      </c>
+      <c r="F57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -1665,8 +2223,17 @@
       <c r="C58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>224</v>
+      </c>
+      <c r="E58" t="s">
+        <v>227</v>
+      </c>
+      <c r="F58" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>106</v>
       </c>
@@ -1676,8 +2243,17 @@
       <c r="C59" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>224</v>
+      </c>
+      <c r="E59" t="s">
+        <v>227</v>
+      </c>
+      <c r="F59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -1687,8 +2263,17 @@
       <c r="C60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>224</v>
+      </c>
+      <c r="E60" t="s">
+        <v>227</v>
+      </c>
+      <c r="F60" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>108</v>
       </c>
@@ -1698,8 +2283,17 @@
       <c r="C61" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>224</v>
+      </c>
+      <c r="E61" t="s">
+        <v>227</v>
+      </c>
+      <c r="F61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>110</v>
       </c>
@@ -1709,8 +2303,17 @@
       <c r="C62" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>224</v>
+      </c>
+      <c r="E62" t="s">
+        <v>227</v>
+      </c>
+      <c r="F62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -1720,8 +2323,17 @@
       <c r="C63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>224</v>
+      </c>
+      <c r="E63" t="s">
+        <v>227</v>
+      </c>
+      <c r="F63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -1731,8 +2343,17 @@
       <c r="C64" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>224</v>
+      </c>
+      <c r="E64" t="s">
+        <v>227</v>
+      </c>
+      <c r="F64" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>116</v>
       </c>
@@ -1742,8 +2363,17 @@
       <c r="C65" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>224</v>
+      </c>
+      <c r="E65" t="s">
+        <v>227</v>
+      </c>
+      <c r="F65" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>116</v>
       </c>
@@ -1753,8 +2383,17 @@
       <c r="C66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" t="s">
+        <v>227</v>
+      </c>
+      <c r="F66" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>118</v>
       </c>
@@ -1764,8 +2403,17 @@
       <c r="C67" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>224</v>
+      </c>
+      <c r="E67" t="s">
+        <v>227</v>
+      </c>
+      <c r="F67" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>120</v>
       </c>
@@ -1775,8 +2423,17 @@
       <c r="C68" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>224</v>
+      </c>
+      <c r="E68" t="s">
+        <v>227</v>
+      </c>
+      <c r="F68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>122</v>
       </c>
@@ -1786,8 +2443,17 @@
       <c r="C69" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>224</v>
+      </c>
+      <c r="E69" t="s">
+        <v>227</v>
+      </c>
+      <c r="F69" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>124</v>
       </c>
@@ -1797,8 +2463,17 @@
       <c r="C70" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D70" t="s">
+        <v>224</v>
+      </c>
+      <c r="E70" t="s">
+        <v>231</v>
+      </c>
+      <c r="F70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>126</v>
       </c>
@@ -1808,8 +2483,17 @@
       <c r="C71" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>224</v>
+      </c>
+      <c r="E71" t="s">
+        <v>231</v>
+      </c>
+      <c r="F71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -1819,8 +2503,17 @@
       <c r="C72" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>224</v>
+      </c>
+      <c r="E72" t="s">
+        <v>231</v>
+      </c>
+      <c r="F72" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -1830,8 +2523,17 @@
       <c r="C73" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>224</v>
+      </c>
+      <c r="E73" t="s">
+        <v>231</v>
+      </c>
+      <c r="F73" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>132</v>
       </c>
@@ -1841,8 +2543,17 @@
       <c r="C74" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>224</v>
+      </c>
+      <c r="E74" t="s">
+        <v>231</v>
+      </c>
+      <c r="F74" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>133</v>
       </c>
@@ -1852,8 +2563,17 @@
       <c r="C75" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>224</v>
+      </c>
+      <c r="E75" t="s">
+        <v>231</v>
+      </c>
+      <c r="F75" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>135</v>
       </c>
@@ -1863,8 +2583,17 @@
       <c r="C76" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" t="s">
+        <v>231</v>
+      </c>
+      <c r="F76" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>137</v>
       </c>
@@ -1874,8 +2603,17 @@
       <c r="C77" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>224</v>
+      </c>
+      <c r="E77" t="s">
+        <v>231</v>
+      </c>
+      <c r="F77" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>139</v>
       </c>
@@ -1885,8 +2623,17 @@
       <c r="C78" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>224</v>
+      </c>
+      <c r="E78" t="s">
+        <v>231</v>
+      </c>
+      <c r="F78" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>141</v>
       </c>
@@ -1896,8 +2643,17 @@
       <c r="C79" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>224</v>
+      </c>
+      <c r="E79" t="s">
+        <v>231</v>
+      </c>
+      <c r="F79" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>142</v>
       </c>
@@ -1907,8 +2663,17 @@
       <c r="C80" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>224</v>
+      </c>
+      <c r="E80" t="s">
+        <v>231</v>
+      </c>
+      <c r="F80" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>144</v>
       </c>
@@ -1918,8 +2683,17 @@
       <c r="C81" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>224</v>
+      </c>
+      <c r="E81" t="s">
+        <v>231</v>
+      </c>
+      <c r="F81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>146</v>
       </c>
@@ -1929,8 +2703,17 @@
       <c r="C82" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>224</v>
+      </c>
+      <c r="E82" t="s">
+        <v>231</v>
+      </c>
+      <c r="F82" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>148</v>
       </c>
@@ -1940,8 +2723,17 @@
       <c r="C83" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>224</v>
+      </c>
+      <c r="E83" t="s">
+        <v>231</v>
+      </c>
+      <c r="F83" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>150</v>
       </c>
@@ -1951,8 +2743,17 @@
       <c r="C84" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>224</v>
+      </c>
+      <c r="E84" t="s">
+        <v>231</v>
+      </c>
+      <c r="F84" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>152</v>
       </c>
@@ -1962,8 +2763,17 @@
       <c r="C85" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>224</v>
+      </c>
+      <c r="E85" t="s">
+        <v>231</v>
+      </c>
+      <c r="F85" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>154</v>
       </c>
@@ -1973,8 +2783,17 @@
       <c r="C86" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>224</v>
+      </c>
+      <c r="E86" t="s">
+        <v>233</v>
+      </c>
+      <c r="F86" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>156</v>
       </c>
@@ -1984,8 +2803,17 @@
       <c r="C87" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>212</v>
+      </c>
+      <c r="E87" t="s">
+        <v>213</v>
+      </c>
+      <c r="F87" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>159</v>
       </c>
@@ -1995,8 +2823,17 @@
       <c r="C88" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>212</v>
+      </c>
+      <c r="E88" t="s">
+        <v>213</v>
+      </c>
+      <c r="F88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -2006,8 +2843,17 @@
       <c r="C89" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>212</v>
+      </c>
+      <c r="E89" t="s">
+        <v>213</v>
+      </c>
+      <c r="F89" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -2017,8 +2863,17 @@
       <c r="C90" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>215</v>
+      </c>
+      <c r="E90" t="s">
+        <v>216</v>
+      </c>
+      <c r="F90" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -2028,8 +2883,17 @@
       <c r="C91" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>215</v>
+      </c>
+      <c r="E91" t="s">
+        <v>216</v>
+      </c>
+      <c r="F91" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -2039,8 +2903,17 @@
       <c r="C92" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>215</v>
+      </c>
+      <c r="E92" t="s">
+        <v>216</v>
+      </c>
+      <c r="F92" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -2050,8 +2923,17 @@
       <c r="C93" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>215</v>
+      </c>
+      <c r="E93" t="s">
+        <v>216</v>
+      </c>
+      <c r="F93" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>14</v>
       </c>
@@ -2061,8 +2943,17 @@
       <c r="C94" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>215</v>
+      </c>
+      <c r="E94" t="s">
+        <v>216</v>
+      </c>
+      <c r="F94" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -2072,8 +2963,17 @@
       <c r="C95" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>215</v>
+      </c>
+      <c r="E95" t="s">
+        <v>216</v>
+      </c>
+      <c r="F95" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>163</v>
       </c>
@@ -2083,8 +2983,17 @@
       <c r="C96" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>215</v>
+      </c>
+      <c r="E96" t="s">
+        <v>218</v>
+      </c>
+      <c r="F96" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>165</v>
       </c>
@@ -2094,8 +3003,17 @@
       <c r="C97" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>215</v>
+      </c>
+      <c r="E97" t="s">
+        <v>218</v>
+      </c>
+      <c r="F97" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>167</v>
       </c>
@@ -2105,8 +3023,17 @@
       <c r="C98" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>215</v>
+      </c>
+      <c r="E98" t="s">
+        <v>218</v>
+      </c>
+      <c r="F98" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>169</v>
       </c>
@@ -2116,8 +3043,17 @@
       <c r="C99" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>215</v>
+      </c>
+      <c r="E99" t="s">
+        <v>218</v>
+      </c>
+      <c r="F99" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>171</v>
       </c>
@@ -2127,8 +3063,17 @@
       <c r="C100" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>215</v>
+      </c>
+      <c r="E100" t="s">
+        <v>218</v>
+      </c>
+      <c r="F100" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>173</v>
       </c>
@@ -2138,8 +3083,17 @@
       <c r="C101" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>215</v>
+      </c>
+      <c r="E101" t="s">
+        <v>218</v>
+      </c>
+      <c r="F101" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2149,8 +3103,17 @@
       <c r="C102" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>215</v>
+      </c>
+      <c r="E102" t="s">
+        <v>218</v>
+      </c>
+      <c r="F102" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>175</v>
       </c>
@@ -2160,8 +3123,14 @@
       <c r="C103" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>215</v>
+      </c>
+      <c r="E103" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>176</v>
       </c>
@@ -2171,8 +3140,14 @@
       <c r="C104" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>215</v>
+      </c>
+      <c r="E104" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -2182,8 +3157,14 @@
       <c r="C105" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>215</v>
+      </c>
+      <c r="E105" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -2193,8 +3174,14 @@
       <c r="C106" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>215</v>
+      </c>
+      <c r="E106" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -2204,8 +3191,14 @@
       <c r="C107" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>215</v>
+      </c>
+      <c r="E107" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -2215,8 +3208,14 @@
       <c r="C108" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>215</v>
+      </c>
+      <c r="E108" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>178</v>
       </c>
@@ -2226,8 +3225,14 @@
       <c r="C109" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>215</v>
+      </c>
+      <c r="E109" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>32</v>
       </c>
@@ -2237,8 +3242,14 @@
       <c r="C110" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>215</v>
+      </c>
+      <c r="E110" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>34</v>
       </c>
@@ -2248,8 +3259,14 @@
       <c r="C111" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>215</v>
+      </c>
+      <c r="E111" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>36</v>
       </c>
@@ -2259,8 +3276,14 @@
       <c r="C112" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>215</v>
+      </c>
+      <c r="E112" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>38</v>
       </c>
@@ -2270,8 +3293,14 @@
       <c r="C113" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>215</v>
+      </c>
+      <c r="E113" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>40</v>
       </c>
@@ -2281,8 +3310,14 @@
       <c r="C114" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>215</v>
+      </c>
+      <c r="E114" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>42</v>
       </c>
@@ -2292,8 +3327,14 @@
       <c r="C115" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>215</v>
+      </c>
+      <c r="E115" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>44</v>
       </c>
@@ -2303,8 +3344,14 @@
       <c r="C116" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>215</v>
+      </c>
+      <c r="E116" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>179</v>
       </c>
@@ -2314,8 +3361,14 @@
       <c r="C117" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>215</v>
+      </c>
+      <c r="E117" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>181</v>
       </c>
@@ -2325,8 +3378,17 @@
       <c r="C118" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>224</v>
+      </c>
+      <c r="E118" t="s">
+        <v>225</v>
+      </c>
+      <c r="F118" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>183</v>
       </c>
@@ -2336,8 +3398,17 @@
       <c r="C119" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>224</v>
+      </c>
+      <c r="E119" t="s">
+        <v>225</v>
+      </c>
+      <c r="F119" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>184</v>
       </c>
@@ -2347,8 +3418,17 @@
       <c r="C120" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>224</v>
+      </c>
+      <c r="E120" t="s">
+        <v>225</v>
+      </c>
+      <c r="F120" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +3438,17 @@
       <c r="C121" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>224</v>
+      </c>
+      <c r="E121" t="s">
+        <v>225</v>
+      </c>
+      <c r="F121" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>185</v>
       </c>
@@ -2369,8 +3458,17 @@
       <c r="C122" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>224</v>
+      </c>
+      <c r="E122" t="s">
+        <v>225</v>
+      </c>
+      <c r="F122" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>51</v>
       </c>
@@ -2380,8 +3478,17 @@
       <c r="C123" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>224</v>
+      </c>
+      <c r="E123" t="s">
+        <v>225</v>
+      </c>
+      <c r="F123" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>52</v>
       </c>
@@ -2391,8 +3498,17 @@
       <c r="C124" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
+        <v>224</v>
+      </c>
+      <c r="E124" t="s">
+        <v>225</v>
+      </c>
+      <c r="F124" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>187</v>
       </c>
@@ -2402,8 +3518,17 @@
       <c r="C125" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
+        <v>224</v>
+      </c>
+      <c r="E125" t="s">
+        <v>225</v>
+      </c>
+      <c r="F125" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>56</v>
       </c>
@@ -2413,8 +3538,17 @@
       <c r="C126" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>224</v>
+      </c>
+      <c r="E126" t="s">
+        <v>225</v>
+      </c>
+      <c r="F126" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>189</v>
       </c>
@@ -2424,8 +3558,17 @@
       <c r="C127" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>224</v>
+      </c>
+      <c r="E127" t="s">
+        <v>225</v>
+      </c>
+      <c r="F127" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>191</v>
       </c>
@@ -2435,8 +3578,17 @@
       <c r="C128" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>224</v>
+      </c>
+      <c r="E128" t="s">
+        <v>225</v>
+      </c>
+      <c r="F128" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>58</v>
       </c>
@@ -2446,8 +3598,17 @@
       <c r="C129" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>224</v>
+      </c>
+      <c r="E129" t="s">
+        <v>225</v>
+      </c>
+      <c r="F129" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>193</v>
       </c>
@@ -2457,8 +3618,17 @@
       <c r="C130" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>224</v>
+      </c>
+      <c r="E130" t="s">
+        <v>236</v>
+      </c>
+      <c r="F130" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>64</v>
       </c>
@@ -2468,8 +3638,17 @@
       <c r="C131" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D131" t="s">
+        <v>224</v>
+      </c>
+      <c r="E131" t="s">
+        <v>227</v>
+      </c>
+      <c r="F131" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>66</v>
       </c>
@@ -2479,8 +3658,17 @@
       <c r="C132" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D132" t="s">
+        <v>224</v>
+      </c>
+      <c r="E132" t="s">
+        <v>227</v>
+      </c>
+      <c r="F132" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>66</v>
       </c>
@@ -2490,8 +3678,17 @@
       <c r="C133" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D133" t="s">
+        <v>224</v>
+      </c>
+      <c r="E133" t="s">
+        <v>227</v>
+      </c>
+      <c r="F133" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>70</v>
       </c>
@@ -2501,8 +3698,17 @@
       <c r="C134" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D134" t="s">
+        <v>224</v>
+      </c>
+      <c r="E134" t="s">
+        <v>227</v>
+      </c>
+      <c r="F134" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>72</v>
       </c>
@@ -2512,8 +3718,17 @@
       <c r="C135" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D135" t="s">
+        <v>224</v>
+      </c>
+      <c r="E135" t="s">
+        <v>227</v>
+      </c>
+      <c r="F135" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>74</v>
       </c>
@@ -2523,8 +3738,17 @@
       <c r="C136" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
+        <v>224</v>
+      </c>
+      <c r="E136" t="s">
+        <v>227</v>
+      </c>
+      <c r="F136" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>195</v>
       </c>
@@ -2534,8 +3758,17 @@
       <c r="C137" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D137" t="s">
+        <v>224</v>
+      </c>
+      <c r="E137" t="s">
+        <v>227</v>
+      </c>
+      <c r="F137" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>196</v>
       </c>
@@ -2545,8 +3778,17 @@
       <c r="C138" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
+        <v>224</v>
+      </c>
+      <c r="E138" t="s">
+        <v>227</v>
+      </c>
+      <c r="F138" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>198</v>
       </c>
@@ -2556,8 +3798,17 @@
       <c r="C139" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>224</v>
+      </c>
+      <c r="E139" t="s">
+        <v>227</v>
+      </c>
+      <c r="F139" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>78</v>
       </c>
@@ -2567,8 +3818,17 @@
       <c r="C140" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>224</v>
+      </c>
+      <c r="E140" t="s">
+        <v>227</v>
+      </c>
+      <c r="F140" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>199</v>
       </c>
@@ -2578,8 +3838,17 @@
       <c r="C141" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D141" t="s">
+        <v>224</v>
+      </c>
+      <c r="E141" t="s">
+        <v>227</v>
+      </c>
+      <c r="F141" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>79</v>
       </c>
@@ -2589,8 +3858,17 @@
       <c r="C142" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
+        <v>224</v>
+      </c>
+      <c r="E142" t="s">
+        <v>227</v>
+      </c>
+      <c r="F142" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>80</v>
       </c>
@@ -2600,8 +3878,17 @@
       <c r="C143" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>224</v>
+      </c>
+      <c r="E143" t="s">
+        <v>227</v>
+      </c>
+      <c r="F143" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>82</v>
       </c>
@@ -2611,8 +3898,17 @@
       <c r="C144" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D144" t="s">
+        <v>224</v>
+      </c>
+      <c r="E144" t="s">
+        <v>227</v>
+      </c>
+      <c r="F144" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>84</v>
       </c>
@@ -2622,8 +3918,17 @@
       <c r="C145" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D145" t="s">
+        <v>224</v>
+      </c>
+      <c r="E145" t="s">
+        <v>227</v>
+      </c>
+      <c r="F145" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>86</v>
       </c>
@@ -2633,8 +3938,17 @@
       <c r="C146" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>224</v>
+      </c>
+      <c r="E146" t="s">
+        <v>227</v>
+      </c>
+      <c r="F146" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>88</v>
       </c>
@@ -2644,8 +3958,17 @@
       <c r="C147" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D147" t="s">
+        <v>224</v>
+      </c>
+      <c r="E147" t="s">
+        <v>227</v>
+      </c>
+      <c r="F147" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>90</v>
       </c>
@@ -2655,8 +3978,17 @@
       <c r="C148" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>224</v>
+      </c>
+      <c r="E148" t="s">
+        <v>227</v>
+      </c>
+      <c r="F148" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>92</v>
       </c>
@@ -2666,8 +3998,17 @@
       <c r="C149" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D149" t="s">
+        <v>224</v>
+      </c>
+      <c r="E149" t="s">
+        <v>227</v>
+      </c>
+      <c r="F149" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>93</v>
       </c>
@@ -2677,8 +4018,17 @@
       <c r="C150" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>224</v>
+      </c>
+      <c r="E150" t="s">
+        <v>227</v>
+      </c>
+      <c r="F150" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>96</v>
       </c>
@@ -2688,8 +4038,17 @@
       <c r="C151" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D151" t="s">
+        <v>224</v>
+      </c>
+      <c r="E151" t="s">
+        <v>227</v>
+      </c>
+      <c r="F151" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>100</v>
       </c>
@@ -2699,8 +4058,17 @@
       <c r="C152" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D152" t="s">
+        <v>224</v>
+      </c>
+      <c r="E152" t="s">
+        <v>227</v>
+      </c>
+      <c r="F152" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>105</v>
       </c>
@@ -2710,8 +4078,17 @@
       <c r="C153" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D153" t="s">
+        <v>224</v>
+      </c>
+      <c r="E153" t="s">
+        <v>227</v>
+      </c>
+      <c r="F153" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>106</v>
       </c>
@@ -2721,8 +4098,17 @@
       <c r="C154" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D154" t="s">
+        <v>224</v>
+      </c>
+      <c r="E154" t="s">
+        <v>227</v>
+      </c>
+      <c r="F154" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>108</v>
       </c>
@@ -2732,8 +4118,17 @@
       <c r="C155" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D155" t="s">
+        <v>224</v>
+      </c>
+      <c r="E155" t="s">
+        <v>227</v>
+      </c>
+      <c r="F155" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>108</v>
       </c>
@@ -2743,8 +4138,17 @@
       <c r="C156" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D156" t="s">
+        <v>224</v>
+      </c>
+      <c r="E156" t="s">
+        <v>227</v>
+      </c>
+      <c r="F156" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>201</v>
       </c>
@@ -2754,8 +4158,17 @@
       <c r="C157" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D157" t="s">
+        <v>224</v>
+      </c>
+      <c r="E157" t="s">
+        <v>227</v>
+      </c>
+      <c r="F157" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>110</v>
       </c>
@@ -2765,8 +4178,17 @@
       <c r="C158" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D158" t="s">
+        <v>224</v>
+      </c>
+      <c r="E158" t="s">
+        <v>227</v>
+      </c>
+      <c r="F158" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>112</v>
       </c>
@@ -2776,8 +4198,17 @@
       <c r="C159" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D159" t="s">
+        <v>224</v>
+      </c>
+      <c r="E159" t="s">
+        <v>227</v>
+      </c>
+      <c r="F159" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>114</v>
       </c>
@@ -2787,8 +4218,17 @@
       <c r="C160" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D160" t="s">
+        <v>224</v>
+      </c>
+      <c r="E160" t="s">
+        <v>227</v>
+      </c>
+      <c r="F160" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>116</v>
       </c>
@@ -2798,8 +4238,17 @@
       <c r="C161" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>224</v>
+      </c>
+      <c r="E161" t="s">
+        <v>227</v>
+      </c>
+      <c r="F161" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>202</v>
       </c>
@@ -2809,8 +4258,17 @@
       <c r="C162" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D162" t="s">
+        <v>224</v>
+      </c>
+      <c r="E162" t="s">
+        <v>227</v>
+      </c>
+      <c r="F162" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>204</v>
       </c>
@@ -2820,8 +4278,17 @@
       <c r="C163" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D163" t="s">
+        <v>224</v>
+      </c>
+      <c r="E163" t="s">
+        <v>227</v>
+      </c>
+      <c r="F163" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>206</v>
       </c>
@@ -2831,8 +4298,17 @@
       <c r="C164" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D164" t="s">
+        <v>224</v>
+      </c>
+      <c r="E164" t="s">
+        <v>227</v>
+      </c>
+      <c r="F164" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>118</v>
       </c>
@@ -2842,8 +4318,17 @@
       <c r="C165" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D165" t="s">
+        <v>224</v>
+      </c>
+      <c r="E165" t="s">
+        <v>227</v>
+      </c>
+      <c r="F165" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>124</v>
       </c>
@@ -2853,8 +4338,17 @@
       <c r="C166" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D166" t="s">
+        <v>224</v>
+      </c>
+      <c r="E166" t="s">
+        <v>231</v>
+      </c>
+      <c r="F166" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>128</v>
       </c>
@@ -2864,8 +4358,17 @@
       <c r="C167" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D167" t="s">
+        <v>224</v>
+      </c>
+      <c r="E167" t="s">
+        <v>231</v>
+      </c>
+      <c r="F167" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>132</v>
       </c>
@@ -2875,8 +4378,17 @@
       <c r="C168" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D168" t="s">
+        <v>224</v>
+      </c>
+      <c r="E168" t="s">
+        <v>231</v>
+      </c>
+      <c r="F168" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>133</v>
       </c>
@@ -2886,8 +4398,17 @@
       <c r="C169" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D169" t="s">
+        <v>224</v>
+      </c>
+      <c r="E169" t="s">
+        <v>231</v>
+      </c>
+      <c r="F169" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>135</v>
       </c>
@@ -2897,8 +4418,17 @@
       <c r="C170" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D170" t="s">
+        <v>224</v>
+      </c>
+      <c r="E170" t="s">
+        <v>231</v>
+      </c>
+      <c r="F170" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>142</v>
       </c>
@@ -2908,8 +4438,17 @@
       <c r="C171" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D171" t="s">
+        <v>224</v>
+      </c>
+      <c r="E171" t="s">
+        <v>231</v>
+      </c>
+      <c r="F171" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>148</v>
       </c>
@@ -2919,8 +4458,17 @@
       <c r="C172" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D172" t="s">
+        <v>224</v>
+      </c>
+      <c r="E172" t="s">
+        <v>231</v>
+      </c>
+      <c r="F172" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>207</v>
       </c>
@@ -2929,6 +4477,15 @@
       </c>
       <c r="C173" t="s">
         <v>158</v>
+      </c>
+      <c r="D173" t="s">
+        <v>224</v>
+      </c>
+      <c r="E173" t="s">
+        <v>231</v>
+      </c>
+      <c r="F173" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
